--- a/biology/Histoire de la zoologie et de la botanique/Mary_Leakey/Mary_Leakey.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Mary_Leakey/Mary_Leakey.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mary Leakey, née Mary Douglas Nicol le 6 février 1913 à Londres et morte le 9 décembre 1996 à Nairobi (Kenya), est une paléontologue britannique qui a consacré ses recherches à la Préhistoire de l'Afrique de l'Est.
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dès 1935, elle découvrit en Tanzanie deux fragments d'os pariétaux d'un probable Homo erectus[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dès 1935, elle découvrit en Tanzanie deux fragments d'os pariétaux d'un probable Homo erectus.
 Elle fit d'importantes découvertes d'Homo erectus et d'australopithèques (dont Zinj ayant vécu il y a 1,8 million d'années environ), mis au jour avec son époux Louis Leakey en 1959, sur le site d'Olduvaï en Tanzanie, qu'elle reprit en charge après la disparition de Louis.
 Mary Leakey fit diverses campagnes sur le site de Laetoli en 1959, 1964, puis à partir de 1974. Elle devint célèbre pour sa participation à l'étude, à partir de 1978, des traces de pas de trois hominidés bipèdes (des Australopithecus afarensis ?) fossilisées dans des cendres volcaniques à Laetoli en Tanzanie. Cette piste est celle de trois individus de corpulences différentes (voir article détaillé Laetoli).
-Le fils de Mary et Louis, Richard Leakey, a également été un paléontologue célèbre avant de se consacrer à la politique du Kenya[2].
+Le fils de Mary et Louis, Richard Leakey, a également été un paléontologue célèbre avant de se consacrer à la politique du Kenya.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Principales publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Hay, R.L. et Leakey, M.D. (1992) - « Les empreintes de pas fossiles de Laetoli », in Les origines de l'Homme, Bibliothèque "Pour La Science", Belin, (parution originale en anglais : Scientific American, Févr. 1982, p. 50-57).
 Leakey, M.D. (1967) - « Preliminary survey of the cultural material from Beds I and II, Olduvai Gorge, Tanzania », in: Background to evolution in Africa, Bishop, W.W. et Clark, J.D., (Éds.), Chicago, Chicago University Press, p. 417-442.
@@ -582,7 +598,9 @@
           <t>Honneurs</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'astéroïde (7958) Leakey a été nommé en l'honneur de Mary Leakey, de son mari Louis et de leur fils Richard, tous trois figures majeures de la paléoanthropologie de l'Afrique.
 </t>
